--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd28-Cd80.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd28-Cd80.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="H2">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="I2">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="J2">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N2">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O2">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P2">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q2">
-        <v>0.3591874589597778</v>
+        <v>1.178631347763778</v>
       </c>
       <c r="R2">
-        <v>3.232687130638</v>
+        <v>10.607682129874</v>
       </c>
       <c r="S2">
-        <v>0.000288122923158531</v>
+        <v>0.002150037036946911</v>
       </c>
       <c r="T2">
-        <v>0.0002881229231585312</v>
+        <v>0.002150037036946912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="H3">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="I3">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="J3">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.359105</v>
       </c>
       <c r="O3">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P3">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q3">
-        <v>4.961258868759444</v>
+        <v>1.371799511045555</v>
       </c>
       <c r="R3">
-        <v>44.65132981883499</v>
+        <v>12.34619559941</v>
       </c>
       <c r="S3">
-        <v>0.00397968351109171</v>
+        <v>0.002502410750918474</v>
       </c>
       <c r="T3">
-        <v>0.003979683511091712</v>
+        <v>0.002502410750918474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="H4">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="I4">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="J4">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N4">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O4">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P4">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q4">
-        <v>70.3447312568141</v>
+        <v>37.60932004993356</v>
       </c>
       <c r="R4">
-        <v>633.102581311327</v>
+        <v>338.483880449402</v>
       </c>
       <c r="S4">
-        <v>0.05642716384701001</v>
+        <v>0.06860621108980848</v>
       </c>
       <c r="T4">
-        <v>0.05642716384701005</v>
+        <v>0.06860621108980848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="H5">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="I5">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="J5">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N5">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O5">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P5">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q5">
-        <v>4.963870131485666</v>
+        <v>0.5688060949482223</v>
       </c>
       <c r="R5">
-        <v>44.674831183371</v>
+        <v>5.119254854534001</v>
       </c>
       <c r="S5">
-        <v>0.003981778140597965</v>
+        <v>0.00103760533206599</v>
       </c>
       <c r="T5">
-        <v>0.003981778140597967</v>
+        <v>0.00103760533206599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="H6">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="I6">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="J6">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N6">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O6">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P6">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q6">
-        <v>287.7619485103503</v>
+        <v>107.0120175049002</v>
       </c>
       <c r="R6">
-        <v>2589.857536593153</v>
+        <v>963.108157544102</v>
       </c>
       <c r="S6">
-        <v>0.2308288101670088</v>
+        <v>0.1952093005760266</v>
       </c>
       <c r="T6">
-        <v>0.230828810167009</v>
+        <v>0.1952093005760266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="H7">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="I7">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="J7">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N7">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O7">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P7">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q7">
-        <v>76.644436553872</v>
+        <v>13.69808687467133</v>
       </c>
       <c r="R7">
-        <v>689.799928984848</v>
+        <v>123.282781872042</v>
       </c>
       <c r="S7">
-        <v>0.06148048477999075</v>
+        <v>0.02498779128158943</v>
       </c>
       <c r="T7">
-        <v>0.06148048477999078</v>
+        <v>0.02498779128158943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="H8">
         <v>0.016001</v>
       </c>
       <c r="I8">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="J8">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N8">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O8">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P8">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q8">
-        <v>0.0004323719104444445</v>
+        <v>0.005131159788555556</v>
       </c>
       <c r="R8">
-        <v>0.003891347194</v>
+        <v>0.046180438097</v>
       </c>
       <c r="S8">
-        <v>3.468279741438359E-07</v>
+        <v>9.360164744318514E-06</v>
       </c>
       <c r="T8">
-        <v>3.468279741438361E-07</v>
+        <v>9.360164744318516E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="H9">
         <v>0.016001</v>
       </c>
       <c r="I9">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="J9">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.359105</v>
       </c>
       <c r="O9">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P9">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q9">
-        <v>0.00597211545611111</v>
+        <v>0.005972115456111112</v>
       </c>
       <c r="R9">
-        <v>0.05374903910499999</v>
+        <v>0.05374903910500001</v>
       </c>
       <c r="S9">
-        <v>4.790544100949982E-06</v>
+        <v>1.089422018506795E-05</v>
       </c>
       <c r="T9">
-        <v>4.790544100949983E-06</v>
+        <v>1.089422018506795E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="H10">
         <v>0.016001</v>
       </c>
       <c r="I10">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="J10">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N10">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O10">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P10">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q10">
-        <v>0.08467747156677777</v>
+        <v>0.1637317988201111</v>
       </c>
       <c r="R10">
-        <v>0.7620972441009999</v>
+        <v>1.473586189381</v>
       </c>
       <c r="S10">
-        <v>6.792419953678135E-05</v>
+        <v>0.0002986764540558729</v>
       </c>
       <c r="T10">
-        <v>6.792419953678138E-05</v>
+        <v>0.0002986764540558729</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="H11">
         <v>0.016001</v>
       </c>
       <c r="I11">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="J11">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N11">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O11">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P11">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q11">
-        <v>0.005975258763666666</v>
+        <v>0.002476291647444445</v>
       </c>
       <c r="R11">
-        <v>0.05377732887299999</v>
+        <v>0.022286624827</v>
       </c>
       <c r="S11">
-        <v>4.793065511257334E-06</v>
+        <v>4.517204439190688E-06</v>
       </c>
       <c r="T11">
-        <v>4.793065511257335E-06</v>
+        <v>4.517204439190688E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="H12">
         <v>0.016001</v>
       </c>
       <c r="I12">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="J12">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N12">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O12">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P12">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q12">
-        <v>0.3463934509043333</v>
+        <v>0.4658757483034445</v>
       </c>
       <c r="R12">
-        <v>3.117541058139</v>
+        <v>4.192881734731</v>
       </c>
       <c r="S12">
-        <v>0.0002778601845581245</v>
+        <v>0.0008498417383588158</v>
       </c>
       <c r="T12">
-        <v>0.0002778601845581246</v>
+        <v>0.0008498417383588158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="H13">
         <v>0.016001</v>
       </c>
       <c r="I13">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="J13">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N13">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O13">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P13">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q13">
-        <v>0.09226074193599999</v>
+        <v>0.05963448425566666</v>
       </c>
       <c r="R13">
-        <v>0.8303466774239998</v>
+        <v>0.536710358301</v>
       </c>
       <c r="S13">
-        <v>7.400713470442163E-05</v>
+        <v>0.0001087840995169322</v>
       </c>
       <c r="T13">
-        <v>7.400713470442166E-05</v>
+        <v>0.0001087840995169322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="H14">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="I14">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="J14">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N14">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O14">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P14">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q14">
-        <v>0.07705796445200001</v>
+        <v>0.4585337917141112</v>
       </c>
       <c r="R14">
-        <v>0.6935216800680001</v>
+        <v>4.126804125427</v>
       </c>
       <c r="S14">
-        <v>6.181219699277597E-05</v>
+        <v>0.0008364486798586554</v>
       </c>
       <c r="T14">
-        <v>6.181219699277598E-05</v>
+        <v>0.0008364486798586556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="H15">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="I15">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="J15">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.359105</v>
       </c>
       <c r="O15">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P15">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q15">
-        <v>1.06435929209</v>
+        <v>0.5336837786172223</v>
       </c>
       <c r="R15">
-        <v>9.57923362881</v>
+        <v>4.803154007555001</v>
       </c>
       <c r="S15">
-        <v>0.0008537778891725071</v>
+        <v>0.0009735358661738012</v>
       </c>
       <c r="T15">
-        <v>0.0008537778891725073</v>
+        <v>0.0009735358661738013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="H16">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="I16">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="J16">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N16">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O16">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P16">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q16">
-        <v>15.091344826658</v>
+        <v>14.63149962794122</v>
       </c>
       <c r="R16">
-        <v>135.822103439922</v>
+        <v>131.683496651471</v>
       </c>
       <c r="S16">
-        <v>0.01210555178747761</v>
+        <v>0.02669050519132593</v>
       </c>
       <c r="T16">
-        <v>0.01210555178747761</v>
+        <v>0.02669050519132593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="H17">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="I17">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="J17">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N17">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O17">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P17">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q17">
-        <v>1.064919497034</v>
+        <v>0.2212878657618889</v>
       </c>
       <c r="R17">
-        <v>9.584275473306</v>
+        <v>1.991590791857</v>
       </c>
       <c r="S17">
-        <v>0.0008542272586646953</v>
+        <v>0.0004036691439759272</v>
       </c>
       <c r="T17">
-        <v>0.0008542272586646955</v>
+        <v>0.0004036691439759273</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="H18">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="I18">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="J18">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N18">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O18">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P18">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q18">
-        <v>61.734755615262</v>
+        <v>41.6318692342579</v>
       </c>
       <c r="R18">
-        <v>555.612800537358</v>
+        <v>374.6868231083211</v>
       </c>
       <c r="S18">
-        <v>0.04952065503583926</v>
+        <v>0.07594406931464442</v>
       </c>
       <c r="T18">
-        <v>0.04952065503583928</v>
+        <v>0.07594406931464444</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="H19">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="I19">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="J19">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N19">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O19">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P19">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q19">
-        <v>16.442846541792</v>
+        <v>5.329092702132334</v>
       </c>
       <c r="R19">
-        <v>147.985618876128</v>
+        <v>47.961834319191</v>
       </c>
       <c r="S19">
-        <v>0.01318966153325184</v>
+        <v>0.009721230225758751</v>
       </c>
       <c r="T19">
-        <v>0.01318966153325184</v>
+        <v>0.009721230225758753</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="H20">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="I20">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="J20">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="N20">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="O20">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="P20">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="Q20">
-        <v>0.5694888759855556</v>
+        <v>2.359937786769111</v>
       </c>
       <c r="R20">
-        <v>5.125399883870001</v>
+        <v>21.239440080922</v>
       </c>
       <c r="S20">
-        <v>0.0004568166163997353</v>
+        <v>0.004304953924796711</v>
       </c>
       <c r="T20">
-        <v>0.0004568166163997355</v>
+        <v>0.004304953924796711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="H21">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="I21">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="J21">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.359105</v>
       </c>
       <c r="O21">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="P21">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="Q21">
-        <v>7.866036706363889</v>
+        <v>2.746712539192222</v>
       </c>
       <c r="R21">
-        <v>70.794330357275</v>
+        <v>24.72041285273</v>
       </c>
       <c r="S21">
-        <v>0.006309756738371148</v>
+        <v>0.005010501120909746</v>
       </c>
       <c r="T21">
-        <v>0.006309756738371149</v>
+        <v>0.005010501120909746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="H22">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="I22">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="J22">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="N22">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="O22">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="P22">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="Q22">
-        <v>111.5310151723172</v>
+        <v>75.30400043145623</v>
       </c>
       <c r="R22">
-        <v>1003.779136550855</v>
+        <v>677.736003883106</v>
       </c>
       <c r="S22">
-        <v>0.08946482209415055</v>
+        <v>0.1373681348838063</v>
       </c>
       <c r="T22">
-        <v>0.08946482209415058</v>
+        <v>0.1373681348838063</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="H23">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="I23">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="J23">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="N23">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="O23">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="P23">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="Q23">
-        <v>7.870176842768334</v>
+        <v>1.138903185766889</v>
       </c>
       <c r="R23">
-        <v>70.831591584915</v>
+        <v>10.250128671902</v>
       </c>
       <c r="S23">
-        <v>0.006313077756890497</v>
+        <v>0.00207756567440832</v>
       </c>
       <c r="T23">
-        <v>0.006313077756890498</v>
+        <v>0.00207756567440832</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="H24">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="I24">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="J24">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="N24">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="O24">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="P24">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="Q24">
-        <v>456.2442939493717</v>
+        <v>214.2669157980229</v>
       </c>
       <c r="R24">
-        <v>4106.198645544345</v>
+        <v>1928.402242182206</v>
       </c>
       <c r="S24">
-        <v>0.3659772532921688</v>
+        <v>0.3908616596972311</v>
       </c>
       <c r="T24">
-        <v>0.3659772532921689</v>
+        <v>0.3908616596972311</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="H25">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="I25">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="J25">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="N25">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="O25">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="P25">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="Q25">
-        <v>121.51914810728</v>
+        <v>27.42726373544733</v>
       </c>
       <c r="R25">
-        <v>1093.67233296552</v>
+        <v>246.845373619026</v>
       </c>
       <c r="S25">
-        <v>0.09747682247537694</v>
+        <v>0.05003229632845418</v>
       </c>
       <c r="T25">
-        <v>0.09747682247537695</v>
+        <v>0.05003229632845418</v>
       </c>
     </row>
   </sheetData>
